--- a/feature/testBR/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-30T16:42:39+00:00</t>
+    <t>2025-01-31T13:30:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-31T13:30:27+00:00</t>
+    <t>2025-01-31T15:48:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-31T15:48:31+00:00</t>
+    <t>2025-01-31T16:36:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-31T16:36:09+00:00</t>
+    <t>2025-01-31T16:52:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-31T16:52:44+00:00</t>
+    <t>2025-02-03T13:34:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-03T13:34:22+00:00</t>
+    <t>2025-02-03T13:56:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-03T13:56:30+00:00</t>
+    <t>2025-02-03T16:39:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-03T16:39:55+00:00</t>
+    <t>2025-02-03T16:55:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-03T16:55:26+00:00</t>
+    <t>2025-02-04T08:34:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T08:34:23+00:00</t>
+    <t>2025-02-04T08:52:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T08:52:18+00:00</t>
+    <t>2025-02-04T09:36:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T09:36:46+00:00</t>
+    <t>2025-02-04T10:02:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T10:02:41+00:00</t>
+    <t>2025-02-04T10:20:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T10:20:10+00:00</t>
+    <t>2025-02-04T12:30:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T12:30:23+00:00</t>
+    <t>2025-02-04T12:59:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T12:59:01+00:00</t>
+    <t>2025-02-04T15:23:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T15:23:22+00:00</t>
+    <t>2025-02-04T16:00:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T16:00:41+00:00</t>
+    <t>2025-02-05T17:09:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-05T17:09:50+00:00</t>
+    <t>2025-02-06T08:29:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T08:29:34+00:00</t>
+    <t>2025-02-06T09:04:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T09:04:57+00:00</t>
+    <t>2025-02-06T09:17:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T09:17:57+00:00</t>
+    <t>2025-02-06T09:34:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T09:34:11+00:00</t>
+    <t>2025-02-06T09:41:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T09:41:46+00:00</t>
+    <t>2025-02-06T10:00:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T10:00:10+00:00</t>
+    <t>2025-02-06T13:19:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T13:19:14+00:00</t>
+    <t>2025-02-06T13:39:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T13:39:47+00:00</t>
+    <t>2025-02-06T14:18:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T14:18:01+00:00</t>
+    <t>2025-02-06T14:37:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T14:37:01+00:00</t>
+    <t>2025-02-10T09:11:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-10T09:11:56+00:00</t>
+    <t>2025-02-10T10:48:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-10T10:48:04+00:00</t>
+    <t>2025-03-12T10:37:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-12T10:37:36+00:00</t>
+    <t>2025-03-12T11:02:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-12T11:02:50+00:00</t>
+    <t>2025-03-13T08:22:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
